--- a/4.Analysis/Data/raw/day2/phase_006/select_day2_phase_006.xlsx
+++ b/4.Analysis/Data/raw/day2/phase_006/select_day2_phase_006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t xml:space="preserve">USERID</t>
   </si>
@@ -404,36 +404,6 @@
     <t xml:space="preserve">phase_006_subj_25</t>
   </si>
   <si>
-    <t xml:space="preserve">	767700606512271362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	鸭鸭鸭鸭</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-12-09 23:27:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1小时8分39秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123.147.252.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">词汇评估（评估—再认）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.三个月内</t>
-  </si>
-  <si>
-    <t xml:space="preserve">考察人们的注意力和快速识别能力	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_006_subj_21</t>
-  </si>
-  <si>
     <t xml:space="preserve">	767772447134191618</t>
   </si>
   <si>
@@ -459,30 +429,6 @@
   </si>
   <si>
     <t xml:space="preserve">phase_006_subj_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	772063807198728193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	吱呀</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	2023-12-10 16:47:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1小时40分22秒</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110.72.183.237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">考验记忆能力和反应能力。	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phase_006_subj_9</t>
   </si>
   <si>
     <t xml:space="preserve">	776002406046765058</t>
@@ -1840,19 +1786,19 @@
         <v>42</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="L12" t="s">
         <v>38</v>
       </c>
       <c r="M12" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="N12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O12" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="P12" t="s">
         <v>41</v>
@@ -1873,10 +1819,10 @@
         <v>43</v>
       </c>
       <c r="V12" t="s">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X12" t="s">
         <v>47</v>
@@ -1888,27 +1834,27 @@
         <v>49</v>
       </c>
       <c r="AA12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AB12" t="n">
-        <v>496</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" t="s">
         <v>140</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>141</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>142</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>143</v>
-      </c>
-      <c r="E13" t="s">
-        <v>144</v>
       </c>
       <c r="F13" t="s">
         <v>33</v>
@@ -1917,13 +1863,13 @@
         <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I13" t="s">
         <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
         <v>38</v>
@@ -1932,13 +1878,13 @@
         <v>38</v>
       </c>
       <c r="M13" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="N13" t="s">
         <v>39</v>
       </c>
       <c r="O13" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P13" t="s">
         <v>41</v>
@@ -1959,10 +1905,10 @@
         <v>43</v>
       </c>
       <c r="V13" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="X13" t="s">
         <v>47</v>
@@ -1974,27 +1920,27 @@
         <v>49</v>
       </c>
       <c r="AA13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AB13" t="n">
-        <v>112</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" t="s">
         <v>149</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>150</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>151</v>
-      </c>
-      <c r="D14" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" t="s">
-        <v>153</v>
       </c>
       <c r="F14" t="s">
         <v>33</v>
@@ -2003,13 +1949,13 @@
         <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I14" t="s">
         <v>36</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s">
         <v>38</v>
@@ -2018,13 +1964,13 @@
         <v>38</v>
       </c>
       <c r="M14" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="N14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" t="s">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="P14" t="s">
         <v>41</v>
@@ -2045,10 +1991,10 @@
         <v>43</v>
       </c>
       <c r="V14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="W14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
         <v>47</v>
@@ -2060,181 +2006,9 @@
         <v>49</v>
       </c>
       <c r="AA14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AB14" t="n">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C15" t="s">
-        <v>159</v>
-      </c>
-      <c r="D15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E15" t="s">
-        <v>161</v>
-      </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" t="s">
-        <v>38</v>
-      </c>
-      <c r="N15" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" t="s">
-        <v>40</v>
-      </c>
-      <c r="P15" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>42</v>
-      </c>
-      <c r="R15" t="s">
-        <v>43</v>
-      </c>
-      <c r="S15" t="s">
-        <v>43</v>
-      </c>
-      <c r="T15" t="s">
-        <v>44</v>
-      </c>
-      <c r="U15" t="s">
-        <v>43</v>
-      </c>
-      <c r="V15" t="s">
-        <v>45</v>
-      </c>
-      <c r="W15" t="s">
-        <v>163</v>
-      </c>
-      <c r="X15" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>164</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B16" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" t="s">
-        <v>168</v>
-      </c>
-      <c r="E16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" t="s">
-        <v>170</v>
-      </c>
-      <c r="I16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J16" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>42</v>
-      </c>
-      <c r="R16" t="s">
-        <v>43</v>
-      </c>
-      <c r="S16" t="s">
-        <v>43</v>
-      </c>
-      <c r="T16" t="s">
-        <v>44</v>
-      </c>
-      <c r="U16" t="s">
-        <v>43</v>
-      </c>
-      <c r="V16" t="s">
-        <v>43</v>
-      </c>
-      <c r="W16" t="s">
-        <v>171</v>
-      </c>
-      <c r="X16" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>172</v>
-      </c>
-      <c r="AB16" t="n">
         <v>90</v>
       </c>
     </row>
